--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\AL\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AL/trans/TTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82AD245B-1D76-4AB7-A94A-0274B3F307FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D372EE-EE78-724A-AF5B-5B9AAED1D91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="210" windowWidth="16800" windowHeight="16425" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6411,7 +6411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6737,12 +6737,12 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>905</v>
       </c>
@@ -6750,10 +6750,10 @@
         <v>987</v>
       </c>
       <c r="C1" s="48">
-        <v>44901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6761,512 +6761,512 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="31" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="34" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="34"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="34" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="14"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>55</v>
       </c>
@@ -7291,12 +7291,12 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>0.99999998971286663</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>0.32773377328321535</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -8344,12 +8344,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0.32413298494392645</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -9395,12 +9395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -10444,16 +10444,16 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AF4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10840,105 +10840,105 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="W4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="X4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="Y4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="Z4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="AA4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="AB4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="AC4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="AD4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="AE4">
-        <v>0.15</v>
+        <v>5</v>
       </c>
       <c r="AF4">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -11468,12 +11468,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -12519,12 +12519,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -13570,12 +13570,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -14621,12 +14621,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -15672,12 +15672,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -16723,12 +16723,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -17771,9 +17771,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -17871,27 +17871,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -20230,7 +20230,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>218</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -20458,7 +20458,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>197</v>
       </c>
@@ -21786,7 +21786,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>257</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -22556,7 +22556,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -22776,7 +22776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -22787,7 +22787,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -22897,7 +22897,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -23007,7 +23007,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>279</v>
       </c>
@@ -23117,7 +23117,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -23227,7 +23227,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>285</v>
       </c>
@@ -23337,7 +23337,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>294</v>
       </c>
@@ -23667,7 +23667,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -23777,7 +23777,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -23887,7 +23887,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>302</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -24123,12 +24123,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24386,7 +24386,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -24644,7 +24644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -24902,7 +24902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -25174,12 +25174,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -25308,7 +25308,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25602,7 +25602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -25700,7 +25700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25798,7 +25798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -26010,9 +26010,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -26110,27 +26110,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -26237,7 +26237,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -26473,7 +26473,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -26583,7 +26583,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -26921,7 +26921,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -27141,7 +27141,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -27361,7 +27361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -27471,7 +27471,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -27581,7 +27581,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -27691,7 +27691,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -27911,7 +27911,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -28021,7 +28021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -28131,7 +28131,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -28351,7 +28351,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>330</v>
       </c>
@@ -28359,7 +28359,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>224</v>
       </c>
@@ -28697,7 +28697,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -28705,7 +28705,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -28815,7 +28815,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -28925,7 +28925,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -29035,7 +29035,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -29145,7 +29145,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -29365,7 +29365,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -29475,7 +29475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -29805,7 +29805,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -29915,7 +29915,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -30025,7 +30025,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -30135,7 +30135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -30355,7 +30355,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -30465,7 +30465,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30589,29 +30589,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>920</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -30751,7 +30751,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -30821,7 +30821,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -30856,7 +30856,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -30891,7 +30891,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -30996,7 +30996,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -31031,7 +31031,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -31066,7 +31066,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -31101,7 +31101,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -31171,7 +31171,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -31241,7 +31241,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -31276,7 +31276,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -31311,7 +31311,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -31346,7 +31346,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -31381,7 +31381,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -31416,7 +31416,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -31451,7 +31451,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -31486,7 +31486,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -31521,7 +31521,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -31556,7 +31556,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -31591,7 +31591,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -31626,7 +31626,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -31696,7 +31696,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -31731,7 +31731,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -31752,9 +31752,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -31852,27 +31852,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>147</v>
       </c>
@@ -31979,7 +31979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -31987,7 +31987,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -32003,7 +32003,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -32113,7 +32113,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -32223,7 +32223,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>406</v>
       </c>
@@ -32333,7 +32333,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>410</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>413</v>
       </c>
@@ -32773,7 +32773,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>415</v>
       </c>
@@ -32883,7 +32883,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -32993,7 +32993,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>418</v>
       </c>
@@ -33103,7 +33103,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>420</v>
       </c>
@@ -33111,7 +33111,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>402</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -33331,7 +33331,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -33441,7 +33441,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>408</v>
       </c>
@@ -33551,7 +33551,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>410</v>
       </c>
@@ -33661,7 +33661,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -33771,7 +33771,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>413</v>
       </c>
@@ -33881,7 +33881,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>415</v>
       </c>
@@ -33991,7 +33991,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>294</v>
       </c>
@@ -34101,7 +34101,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>430</v>
       </c>
@@ -34211,7 +34211,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>432</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -34329,7 +34329,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>404</v>
       </c>
@@ -34439,7 +34439,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>406</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -34659,7 +34659,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>410</v>
       </c>
@@ -34769,7 +34769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -34989,7 +34989,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>415</v>
       </c>
@@ -35099,7 +35099,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>442</v>
       </c>
@@ -35319,7 +35319,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>444</v>
       </c>
@@ -35429,7 +35429,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>446</v>
       </c>
@@ -35437,7 +35437,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>401</v>
       </c>
@@ -35445,7 +35445,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>402</v>
       </c>
@@ -35555,7 +35555,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>404</v>
       </c>
@@ -35665,7 +35665,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>406</v>
       </c>
@@ -35775,7 +35775,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>408</v>
       </c>
@@ -35885,7 +35885,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>410</v>
       </c>
@@ -35995,7 +35995,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -36105,7 +36105,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>413</v>
       </c>
@@ -36215,7 +36215,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -36325,7 +36325,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>294</v>
       </c>
@@ -36435,7 +36435,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>418</v>
       </c>
@@ -36545,7 +36545,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>420</v>
       </c>
@@ -36553,7 +36553,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>402</v>
       </c>
@@ -36663,7 +36663,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>404</v>
       </c>
@@ -36773,7 +36773,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -36883,7 +36883,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>408</v>
       </c>
@@ -36993,7 +36993,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>410</v>
       </c>
@@ -37103,7 +37103,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>413</v>
       </c>
@@ -37323,7 +37323,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -37433,7 +37433,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -37543,7 +37543,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>430</v>
       </c>
@@ -37653,7 +37653,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -37661,7 +37661,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -37771,7 +37771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>404</v>
       </c>
@@ -37881,7 +37881,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>406</v>
       </c>
@@ -37991,7 +37991,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>408</v>
       </c>
@@ -38101,7 +38101,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>410</v>
       </c>
@@ -38211,7 +38211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -38321,7 +38321,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>413</v>
       </c>
@@ -38431,7 +38431,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>415</v>
       </c>
@@ -38541,7 +38541,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -38651,7 +38651,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -38761,7 +38761,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>401</v>
       </c>
@@ -38772,7 +38772,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>402</v>
       </c>
@@ -38882,7 +38882,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>404</v>
       </c>
@@ -38992,7 +38992,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>406</v>
       </c>
@@ -39102,7 +39102,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>408</v>
       </c>
@@ -39212,7 +39212,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>410</v>
       </c>
@@ -39322,7 +39322,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>282</v>
       </c>
@@ -39432,7 +39432,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>413</v>
       </c>
@@ -39542,7 +39542,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -39652,7 +39652,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>294</v>
       </c>
@@ -39762,7 +39762,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>487</v>
       </c>
@@ -39872,7 +39872,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -39880,7 +39880,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>401</v>
       </c>
@@ -39888,7 +39888,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -39998,7 +39998,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>404</v>
       </c>
@@ -40108,7 +40108,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -40218,7 +40218,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>408</v>
       </c>
@@ -40328,7 +40328,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>410</v>
       </c>
@@ -40438,7 +40438,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -40548,7 +40548,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>413</v>
       </c>
@@ -40658,7 +40658,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>415</v>
       </c>
@@ -40768,7 +40768,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>294</v>
       </c>
@@ -40878,7 +40878,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -40985,7 +40985,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -40993,7 +40993,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>402</v>
       </c>
@@ -41103,7 +41103,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>404</v>
       </c>
@@ -41213,7 +41213,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>406</v>
       </c>
@@ -41323,7 +41323,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>408</v>
       </c>
@@ -41433,7 +41433,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>410</v>
       </c>
@@ -41543,7 +41543,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -41653,7 +41653,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>413</v>
       </c>
@@ -41763,7 +41763,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>415</v>
       </c>
@@ -41873,7 +41873,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>294</v>
       </c>
@@ -41983,7 +41983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>510</v>
       </c>
@@ -42090,7 +42090,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>432</v>
       </c>
@@ -42098,7 +42098,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>402</v>
       </c>
@@ -42208,7 +42208,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>404</v>
       </c>
@@ -42318,7 +42318,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>406</v>
       </c>
@@ -42428,7 +42428,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>408</v>
       </c>
@@ -42538,7 +42538,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -42648,7 +42648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -42758,7 +42758,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>413</v>
       </c>
@@ -42868,7 +42868,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -42978,7 +42978,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>294</v>
       </c>
@@ -43088,7 +43088,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>521</v>
       </c>
@@ -43195,7 +43195,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>523</v>
       </c>
@@ -43302,7 +43302,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>525</v>
       </c>
@@ -43310,7 +43310,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -43318,7 +43318,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>402</v>
       </c>
@@ -43428,7 +43428,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -43538,7 +43538,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>406</v>
       </c>
@@ -43648,7 +43648,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>408</v>
       </c>
@@ -43758,7 +43758,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>410</v>
       </c>
@@ -43868,7 +43868,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -43978,7 +43978,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -44088,7 +44088,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>415</v>
       </c>
@@ -44198,7 +44198,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>294</v>
       </c>
@@ -44308,7 +44308,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>418</v>
       </c>
@@ -44418,7 +44418,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>420</v>
       </c>
@@ -44426,7 +44426,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>402</v>
       </c>
@@ -44536,7 +44536,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>404</v>
       </c>
@@ -44646,7 +44646,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>406</v>
       </c>
@@ -44756,7 +44756,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>408</v>
       </c>
@@ -44866,7 +44866,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>410</v>
       </c>
@@ -44976,7 +44976,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>282</v>
       </c>
@@ -45086,7 +45086,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>413</v>
       </c>
@@ -45196,7 +45196,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>415</v>
       </c>
@@ -45306,7 +45306,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -45416,7 +45416,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>430</v>
       </c>
@@ -45526,7 +45526,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>432</v>
       </c>
@@ -45534,7 +45534,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>402</v>
       </c>
@@ -45644,7 +45644,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>404</v>
       </c>
@@ -45754,7 +45754,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>406</v>
       </c>
@@ -45864,7 +45864,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>408</v>
       </c>
@@ -45974,7 +45974,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>410</v>
       </c>
@@ -46084,7 +46084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>282</v>
       </c>
@@ -46194,7 +46194,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>413</v>
       </c>
@@ -46304,7 +46304,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>415</v>
       </c>
@@ -46414,7 +46414,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>294</v>
       </c>
@@ -46524,7 +46524,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -46634,7 +46634,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -46744,7 +46744,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -46752,7 +46752,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>489</v>
       </c>
@@ -46760,7 +46760,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>401</v>
       </c>
@@ -46768,7 +46768,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>402</v>
       </c>
@@ -46878,7 +46878,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>404</v>
       </c>
@@ -46988,7 +46988,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>406</v>
       </c>
@@ -47098,7 +47098,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>408</v>
       </c>
@@ -47208,7 +47208,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>410</v>
       </c>
@@ -47318,7 +47318,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>282</v>
       </c>
@@ -47428,7 +47428,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>413</v>
       </c>
@@ -47538,7 +47538,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>415</v>
       </c>
@@ -47648,7 +47648,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>294</v>
       </c>
@@ -47758,7 +47758,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>499</v>
       </c>
@@ -47865,7 +47865,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>420</v>
       </c>
@@ -47873,7 +47873,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>402</v>
       </c>
@@ -47983,7 +47983,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>404</v>
       </c>
@@ -48093,7 +48093,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>406</v>
       </c>
@@ -48203,7 +48203,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>408</v>
       </c>
@@ -48313,7 +48313,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>410</v>
       </c>
@@ -48423,7 +48423,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>282</v>
       </c>
@@ -48533,7 +48533,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>413</v>
       </c>
@@ -48643,7 +48643,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -48753,7 +48753,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>294</v>
       </c>
@@ -48863,7 +48863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>510</v>
       </c>
@@ -48970,7 +48970,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>432</v>
       </c>
@@ -48978,7 +48978,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>402</v>
       </c>
@@ -49088,7 +49088,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -49198,7 +49198,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -49308,7 +49308,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -49418,7 +49418,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>410</v>
       </c>
@@ -49528,7 +49528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>282</v>
       </c>
@@ -49638,7 +49638,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>413</v>
       </c>
@@ -49748,7 +49748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>415</v>
       </c>
@@ -49858,7 +49858,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -49968,7 +49968,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>521</v>
       </c>
@@ -50075,7 +50075,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>523</v>
       </c>
@@ -50182,7 +50182,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>588</v>
       </c>
@@ -50190,7 +50190,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -50198,7 +50198,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>402</v>
       </c>
@@ -50308,7 +50308,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -50418,7 +50418,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>406</v>
       </c>
@@ -50528,7 +50528,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>408</v>
       </c>
@@ -50638,7 +50638,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>410</v>
       </c>
@@ -50748,7 +50748,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>282</v>
       </c>
@@ -50858,7 +50858,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -50968,7 +50968,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>415</v>
       </c>
@@ -51078,7 +51078,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -51188,7 +51188,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>418</v>
       </c>
@@ -51298,7 +51298,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>420</v>
       </c>
@@ -51306,7 +51306,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>402</v>
       </c>
@@ -51416,7 +51416,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>404</v>
       </c>
@@ -51526,7 +51526,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>406</v>
       </c>
@@ -51636,7 +51636,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>408</v>
       </c>
@@ -51746,7 +51746,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>410</v>
       </c>
@@ -51856,7 +51856,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>282</v>
       </c>
@@ -51966,7 +51966,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>413</v>
       </c>
@@ -52076,7 +52076,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>415</v>
       </c>
@@ -52186,7 +52186,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>294</v>
       </c>
@@ -52296,7 +52296,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>430</v>
       </c>
@@ -52406,7 +52406,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>432</v>
       </c>
@@ -52414,7 +52414,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>402</v>
       </c>
@@ -52524,7 +52524,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>404</v>
       </c>
@@ -52634,7 +52634,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>406</v>
       </c>
@@ -52744,7 +52744,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>408</v>
       </c>
@@ -52854,7 +52854,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>410</v>
       </c>
@@ -52964,7 +52964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>282</v>
       </c>
@@ -53074,7 +53074,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>413</v>
       </c>
@@ -53184,7 +53184,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>415</v>
       </c>
@@ -53294,7 +53294,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>294</v>
       </c>
@@ -53404,7 +53404,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>442</v>
       </c>
@@ -53514,7 +53514,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>270</v>
       </c>
@@ -53624,7 +53624,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -53632,7 +53632,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>620</v>
       </c>
@@ -53742,7 +53742,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>622</v>
       </c>
@@ -53852,7 +53852,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>624</v>
       </c>
@@ -53860,7 +53860,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>625</v>
       </c>
@@ -53970,7 +53970,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>627</v>
       </c>
@@ -54080,7 +54080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>629</v>
       </c>
@@ -54190,7 +54190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>631</v>
       </c>
@@ -54300,7 +54300,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -54308,7 +54308,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>633</v>
       </c>
@@ -54418,7 +54418,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>622</v>
       </c>
@@ -54528,7 +54528,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>624</v>
       </c>
@@ -54536,7 +54536,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>625</v>
       </c>
@@ -54646,7 +54646,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>627</v>
       </c>
@@ -54756,7 +54756,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>629</v>
       </c>
@@ -54866,7 +54866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>631</v>
       </c>
@@ -54976,7 +54976,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -54984,7 +54984,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>640</v>
       </c>
@@ -55094,7 +55094,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>642</v>
       </c>
@@ -55204,7 +55204,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>644</v>
       </c>
@@ -55314,7 +55314,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>624</v>
       </c>
@@ -55322,7 +55322,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>625</v>
       </c>
@@ -55432,7 +55432,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>627</v>
       </c>
@@ -55542,7 +55542,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>629</v>
       </c>
@@ -55652,7 +55652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>631</v>
       </c>
@@ -55776,18 +55776,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -55813,7 +55813,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55840,7 +55840,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55868,7 +55868,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55894,7 +55894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55920,7 +55920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55946,7 +55946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55972,7 +55972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -55994,19 +55994,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56032,7 +56032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56060,7 +56060,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56087,7 +56087,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56113,7 +56113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -56139,7 +56139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56165,7 +56165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56204,81 +56204,81 @@
       <selection activeCell="A61" sqref="A61:AF68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="N16" s="40"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -56287,13 +56287,13 @@
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N18" s="41"/>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -56302,7 +56302,7 @@
       <c r="P19" s="42"/>
       <c r="Q19" s="42"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -56311,7 +56311,7 @@
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -56320,7 +56320,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -56329,7 +56329,7 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -56338,7 +56338,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -56347,7 +56347,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -56356,13 +56356,13 @@
       <c r="P25" s="42"/>
       <c r="Q25" s="42"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N26" s="41"/>
       <c r="O26" s="43"/>
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>945</v>
       </c>
@@ -56371,96 +56371,96 @@
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="N28" s="41"/>
       <c r="O28" s="43"/>
       <c r="P28" s="42"/>
       <c r="Q28" s="42"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="N29" s="41"/>
       <c r="O29" s="43"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="N30" s="41"/>
       <c r="O30" s="43"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="N31" s="41"/>
       <c r="O31" s="43"/>
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="N32" s="41"/>
       <c r="O32" s="43"/>
       <c r="P32" s="42"/>
       <c r="Q32" s="42"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="N33" s="41"/>
       <c r="O33" s="43"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="N34" s="41"/>
       <c r="O34" s="43"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="N35" s="41"/>
       <c r="O35" s="43"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="N36" s="41"/>
       <c r="O36" s="43"/>
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="N37" s="41"/>
       <c r="O37" s="43"/>
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="N38" s="41"/>
       <c r="O38" s="43"/>
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N39" s="41"/>
       <c r="O39" s="43"/>
       <c r="P39" s="42"/>
       <c r="Q39" s="42"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N40" s="41"/>
       <c r="O40" s="43"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>946</v>
       </c>
@@ -56469,7 +56469,7 @@
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>947</v>
       </c>
@@ -56478,7 +56478,7 @@
       <c r="P42" s="42"/>
       <c r="Q42" s="42"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>948</v>
       </c>
@@ -56487,13 +56487,13 @@
       <c r="P43" s="42"/>
       <c r="Q43" s="42"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N44" s="41"/>
       <c r="O44" s="43"/>
       <c r="P44" s="42"/>
       <c r="Q44" s="42"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
         <v>939</v>
       </c>
@@ -56505,7 +56505,7 @@
       <c r="P45" s="42"/>
       <c r="Q45" s="42"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
         <v>940</v>
       </c>
@@ -56523,7 +56523,7 @@
       <c r="P46" s="42"/>
       <c r="Q46" s="42"/>
     </row>
-    <row r="47" spans="1:17" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="61" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
         <v>941</v>
       </c>
@@ -56546,7 +56546,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="41">
         <v>2010</v>
       </c>
@@ -56571,7 +56571,7 @@
         <v>2.9920693520220819E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="41">
         <v>2011</v>
       </c>
@@ -56596,7 +56596,7 @@
         <v>1.1079306479779186E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="41">
         <v>2012</v>
       </c>
@@ -56610,7 +56610,7 @@
         <v>53.170999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="41">
         <v>2013</v>
       </c>
@@ -56626,7 +56626,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="41">
         <v>2014</v>
       </c>
@@ -56642,7 +56642,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="41">
         <v>2015</v>
       </c>
@@ -56656,7 +56656,7 @@
         <v>114.023</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="41">
         <v>2016</v>
       </c>
@@ -56670,7 +56670,7 @@
         <v>159.61600000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="41">
         <v>2017</v>
       </c>
@@ -56684,7 +56684,7 @@
         <v>195.67500000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="41">
         <v>2018</v>
       </c>
@@ -56698,7 +56698,7 @@
         <v>330.94499999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="41">
         <v>2019</v>
       </c>
@@ -56712,7 +56712,7 @@
         <v>319.613</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="41">
         <v>2020</v>
       </c>
@@ -56726,7 +56726,7 @@
         <v>307.589</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="41">
         <v>2021</v>
       </c>
@@ -56740,7 +56740,7 @@
         <v>607.56700000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>952</v>
       </c>
@@ -56838,7 +56838,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>953</v>
       </c>
@@ -56936,7 +56936,7 @@
         <v>11818600</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>954</v>
       </c>
@@ -57034,7 +57034,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>955</v>
       </c>
@@ -57132,7 +57132,7 @@
         <v>14375400</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>956</v>
       </c>
@@ -57230,7 +57230,7 @@
         <v>116103</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>957</v>
       </c>
@@ -57328,7 +57328,7 @@
         <v>1056400</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>958</v>
       </c>
@@ -57426,7 +57426,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>959</v>
       </c>
@@ -57524,7 +57524,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>960</v>
       </c>
@@ -57653,7 +57653,7 @@
         <v>0.43174767576613876</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>961</v>
       </c>
@@ -57782,7 +57782,7 @@
         <v>3.8591562848336439E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>962</v>
       </c>
@@ -57911,7 +57911,7 @@
         <v>0.47033923861447519</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
       <c r="D73" s="45"/>
@@ -57944,7 +57944,7 @@
       <c r="AE73" s="45"/>
       <c r="AF73" s="45"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>963</v>
       </c>
@@ -57980,7 +57980,7 @@
       <c r="AE74" s="45"/>
       <c r="AF74" s="45"/>
     </row>
-    <row r="76" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="F76" s="46" t="s">
         <v>971</v>
       </c>
@@ -57988,7 +57988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="F77" s="46" t="s">
         <v>972</v>
       </c>
@@ -57996,7 +57996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="F78" s="46" t="s">
         <v>973</v>
       </c>
@@ -58005,7 +58005,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="F80" s="46" t="s">
         <v>974</v>
       </c>
@@ -58013,7 +58013,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="F81" s="46" t="s">
         <v>975</v>
       </c>
@@ -58022,7 +58022,7 @@
         <v>0.21937500000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>977</v>
       </c>
@@ -58034,42 +58034,42 @@
         <v>5.0625000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="34" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E93" s="30"/>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
@@ -58084,7 +58084,7 @@
       <c r="N93" s="30"/>
       <c r="O93" s="30"/>
     </row>
-    <row r="94" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -58097,7 +58097,7 @@
       <c r="N94" s="29"/>
       <c r="O94" s="29"/>
     </row>
-    <row r="95" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E95" s="29"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -58110,7 +58110,7 @@
       <c r="N95" s="29"/>
       <c r="O95" s="29"/>
     </row>
-    <row r="96" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E96" s="29"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -58125,17 +58125,17 @@
       <c r="P96" s="29"/>
       <c r="Q96" s="29"/>
     </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K103" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>935</v>
       </c>
@@ -58144,7 +58144,7 @@
         <v>1.326343</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>936</v>
       </c>
@@ -58153,7 +58153,7 @@
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>931</v>
       </c>
@@ -58186,18 +58186,18 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -58216,7 +58216,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -58233,7 +58233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -58250,7 +58250,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -58267,12 +58267,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -58286,7 +58286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -58300,7 +58300,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -58314,7 +58314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -58456,7 +58456,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -58601,7 +58601,7 @@
         <v>0.99999998971286663</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -58742,7 +58742,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -58881,7 +58881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -59022,7 +59022,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -59162,7 +59162,7 @@
         <v>0.32773377328321535</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>124</v>
       </c>
@@ -59303,7 +59303,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -59446,7 +59446,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -59592,7 +59592,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -59732,7 +59732,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -59871,7 +59871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -60010,7 +60010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -60151,7 +60151,7 @@
         <v>0.32413298494392645</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>124</v>
       </c>
@@ -60292,7 +60292,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -60435,7 +60435,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -60581,7 +60581,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -60722,7 +60722,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -60863,7 +60863,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -61002,7 +61002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -61143,7 +61143,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>124</v>
       </c>
@@ -61284,7 +61284,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -61427,7 +61427,7 @@
         <v>0.17108784051909381</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -61572,7 +61572,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -61713,7 +61713,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -61852,7 +61852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -61991,7 +61991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -62132,7 +62132,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>124</v>
       </c>
@@ -62273,7 +62273,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -62416,7 +62416,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -62700,7 +62700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -62839,7 +62839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -62978,7 +62978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -63117,7 +63117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>124</v>
       </c>
@@ -63256,7 +63256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -63397,7 +63397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -63542,7 +63542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -63681,7 +63681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -63820,7 +63820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -63959,7 +63959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -64098,7 +64098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -64237,7 +64237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -64378,7 +64378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -64524,7 +64524,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -64663,7 +64663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -64802,7 +64802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -64942,7 +64942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -65081,7 +65081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>124</v>
       </c>
@@ -65220,7 +65220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -65361,7 +65361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -65506,7 +65506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -65645,7 +65645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -65784,7 +65784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -65923,7 +65923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -66062,7 +66062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>124</v>
       </c>
@@ -66201,7 +66201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -66342,7 +66342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -66487,7 +66487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -66626,7 +66626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -66765,7 +66765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -66904,7 +66904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -67043,7 +67043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
         <v>124</v>
       </c>
@@ -67182,7 +67182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -67323,7 +67323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -67468,7 +67468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -67607,7 +67607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -67746,7 +67746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -67885,7 +67885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -68024,7 +68024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>124</v>
       </c>
@@ -68163,7 +68163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -68304,7 +68304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -68450,7 +68450,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -68590,7 +68590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -68729,7 +68729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -68869,7 +68869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -69009,7 +69009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -69149,7 +69149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -69291,7 +69291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -69436,7 +69436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -69575,7 +69575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
         <v>3</v>
       </c>
@@ -69714,7 +69714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -69853,7 +69853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -69992,7 +69992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>124</v>
       </c>
@@ -70131,7 +70131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AL/trans/TTS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\AL\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D372EE-EE78-724A-AF5B-5B9AAED1D91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32953517-9E6D-4880-95D7-681913E3AD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6411,7 +6411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6737,12 +6737,12 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>905</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6761,512 +6761,512 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="34" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="14"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>55</v>
       </c>
@@ -7291,12 +7291,12 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>0.99999998971286663</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>0.32773377328321535</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -8344,12 +8344,12 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>0.32413298494392645</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -9395,12 +9395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -10444,16 +10444,16 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10840,105 +10840,105 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -11468,12 +11468,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -12519,12 +12519,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -13570,12 +13570,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -14621,12 +14621,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -15672,12 +15672,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -16723,12 +16723,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -17771,9 +17771,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -17871,27 +17871,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -18234,7 +18234,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -18792,7 +18792,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -19012,7 +19012,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -20230,7 +20230,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>218</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -20348,7 +20348,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -20458,7 +20458,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>227</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -20796,7 +20796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>197</v>
       </c>
@@ -21786,7 +21786,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>257</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -22556,7 +22556,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -22776,7 +22776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -22787,7 +22787,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -22897,7 +22897,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>276</v>
       </c>
@@ -23007,7 +23007,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>279</v>
       </c>
@@ -23117,7 +23117,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -23227,7 +23227,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>285</v>
       </c>
@@ -23337,7 +23337,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -23447,7 +23447,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>294</v>
       </c>
@@ -23667,7 +23667,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -23777,7 +23777,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -23887,7 +23887,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>302</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -24123,12 +24123,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -24257,7 +24257,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24386,7 +24386,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -24644,7 +24644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -24902,7 +24902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -25174,12 +25174,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>127</v>
       </c>
@@ -25308,7 +25308,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25602,7 +25602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -25700,7 +25700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25798,7 +25798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -26010,9 +26010,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -26110,27 +26110,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>147</v>
       </c>
@@ -26237,7 +26237,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>310</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>153</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -26473,7 +26473,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -26583,7 +26583,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -26921,7 +26921,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -27031,7 +27031,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -27141,7 +27141,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -27251,7 +27251,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -27361,7 +27361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -27471,7 +27471,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>191</v>
       </c>
@@ -27581,7 +27581,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -27691,7 +27691,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>197</v>
       </c>
@@ -27801,7 +27801,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>200</v>
       </c>
@@ -27911,7 +27911,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>202</v>
       </c>
@@ -28021,7 +28021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -28131,7 +28131,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -28241,7 +28241,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -28351,7 +28351,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>330</v>
       </c>
@@ -28359,7 +28359,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>218</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>224</v>
       </c>
@@ -28697,7 +28697,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -28705,7 +28705,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -28815,7 +28815,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -28925,7 +28925,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>173</v>
       </c>
@@ -29035,7 +29035,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -29145,7 +29145,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>182</v>
       </c>
@@ -29365,7 +29365,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>185</v>
       </c>
@@ -29475,7 +29475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>188</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -29805,7 +29805,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -29915,7 +29915,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -30025,7 +30025,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>202</v>
       </c>
@@ -30135,7 +30135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>205</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -30355,7 +30355,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -30465,7 +30465,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -30589,29 +30589,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>920</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -30751,7 +30751,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -30821,7 +30821,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -30856,7 +30856,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -30891,7 +30891,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -30996,7 +30996,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -31031,7 +31031,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -31066,7 +31066,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -31101,7 +31101,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -31136,7 +31136,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -31171,7 +31171,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -31241,7 +31241,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -31276,7 +31276,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -31311,7 +31311,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -31346,7 +31346,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -31381,7 +31381,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -31416,7 +31416,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -31451,7 +31451,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -31486,7 +31486,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -31521,7 +31521,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -31556,7 +31556,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -31591,7 +31591,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -31626,7 +31626,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -31696,7 +31696,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -31731,7 +31731,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -31752,9 +31752,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -31852,27 +31852,27 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>147</v>
       </c>
@@ -31979,7 +31979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -31987,7 +31987,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>400</v>
       </c>
@@ -31995,7 +31995,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>401</v>
       </c>
@@ -32003,7 +32003,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -32113,7 +32113,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -32223,7 +32223,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>406</v>
       </c>
@@ -32333,7 +32333,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -32443,7 +32443,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>410</v>
       </c>
@@ -32553,7 +32553,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>282</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>413</v>
       </c>
@@ -32773,7 +32773,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>415</v>
       </c>
@@ -32883,7 +32883,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -32993,7 +32993,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>418</v>
       </c>
@@ -33103,7 +33103,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>420</v>
       </c>
@@ -33111,7 +33111,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>402</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>404</v>
       </c>
@@ -33331,7 +33331,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>406</v>
       </c>
@@ -33441,7 +33441,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>408</v>
       </c>
@@ -33551,7 +33551,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>410</v>
       </c>
@@ -33661,7 +33661,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -33771,7 +33771,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>413</v>
       </c>
@@ -33881,7 +33881,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>415</v>
       </c>
@@ -33991,7 +33991,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>294</v>
       </c>
@@ -34101,7 +34101,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>430</v>
       </c>
@@ -34211,7 +34211,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>432</v>
       </c>
@@ -34219,7 +34219,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>402</v>
       </c>
@@ -34329,7 +34329,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>404</v>
       </c>
@@ -34439,7 +34439,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>406</v>
       </c>
@@ -34549,7 +34549,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>408</v>
       </c>
@@ -34659,7 +34659,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>410</v>
       </c>
@@ -34769,7 +34769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -34879,7 +34879,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>413</v>
       </c>
@@ -34989,7 +34989,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>415</v>
       </c>
@@ -35099,7 +35099,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>294</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>442</v>
       </c>
@@ -35319,7 +35319,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>444</v>
       </c>
@@ -35429,7 +35429,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>446</v>
       </c>
@@ -35437,7 +35437,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>401</v>
       </c>
@@ -35445,7 +35445,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>402</v>
       </c>
@@ -35555,7 +35555,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>404</v>
       </c>
@@ -35665,7 +35665,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>406</v>
       </c>
@@ -35775,7 +35775,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>408</v>
       </c>
@@ -35885,7 +35885,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>410</v>
       </c>
@@ -35995,7 +35995,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -36105,7 +36105,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>413</v>
       </c>
@@ -36215,7 +36215,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>415</v>
       </c>
@@ -36325,7 +36325,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>294</v>
       </c>
@@ -36435,7 +36435,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>418</v>
       </c>
@@ -36545,7 +36545,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>420</v>
       </c>
@@ -36553,7 +36553,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>402</v>
       </c>
@@ -36663,7 +36663,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>404</v>
       </c>
@@ -36773,7 +36773,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -36883,7 +36883,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>408</v>
       </c>
@@ -36993,7 +36993,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>410</v>
       </c>
@@ -37103,7 +37103,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>413</v>
       </c>
@@ -37323,7 +37323,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -37433,7 +37433,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>294</v>
       </c>
@@ -37543,7 +37543,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>430</v>
       </c>
@@ -37653,7 +37653,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>432</v>
       </c>
@@ -37661,7 +37661,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>402</v>
       </c>
@@ -37771,7 +37771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>404</v>
       </c>
@@ -37881,7 +37881,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>406</v>
       </c>
@@ -37991,7 +37991,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>408</v>
       </c>
@@ -38101,7 +38101,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>410</v>
       </c>
@@ -38211,7 +38211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -38321,7 +38321,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>413</v>
       </c>
@@ -38431,7 +38431,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>415</v>
       </c>
@@ -38541,7 +38541,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>294</v>
       </c>
@@ -38651,7 +38651,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>442</v>
       </c>
@@ -38761,7 +38761,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>401</v>
       </c>
@@ -38772,7 +38772,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>402</v>
       </c>
@@ -38882,7 +38882,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>404</v>
       </c>
@@ -38992,7 +38992,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>406</v>
       </c>
@@ -39102,7 +39102,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>408</v>
       </c>
@@ -39212,7 +39212,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>410</v>
       </c>
@@ -39322,7 +39322,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>282</v>
       </c>
@@ -39432,7 +39432,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>413</v>
       </c>
@@ -39542,7 +39542,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -39652,7 +39652,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>294</v>
       </c>
@@ -39762,7 +39762,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>487</v>
       </c>
@@ -39872,7 +39872,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>489</v>
       </c>
@@ -39880,7 +39880,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>401</v>
       </c>
@@ -39888,7 +39888,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -39998,7 +39998,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>404</v>
       </c>
@@ -40108,7 +40108,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>406</v>
       </c>
@@ -40218,7 +40218,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>408</v>
       </c>
@@ -40328,7 +40328,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>410</v>
       </c>
@@ -40438,7 +40438,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>282</v>
       </c>
@@ -40548,7 +40548,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>413</v>
       </c>
@@ -40658,7 +40658,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>415</v>
       </c>
@@ -40768,7 +40768,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>294</v>
       </c>
@@ -40878,7 +40878,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>499</v>
       </c>
@@ -40985,7 +40985,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -40993,7 +40993,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>402</v>
       </c>
@@ -41103,7 +41103,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>404</v>
       </c>
@@ -41213,7 +41213,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>406</v>
       </c>
@@ -41323,7 +41323,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>408</v>
       </c>
@@ -41433,7 +41433,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>410</v>
       </c>
@@ -41543,7 +41543,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -41653,7 +41653,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>413</v>
       </c>
@@ -41763,7 +41763,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>415</v>
       </c>
@@ -41873,7 +41873,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>294</v>
       </c>
@@ -41983,7 +41983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>510</v>
       </c>
@@ -42090,7 +42090,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>432</v>
       </c>
@@ -42098,7 +42098,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>402</v>
       </c>
@@ -42208,7 +42208,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>404</v>
       </c>
@@ -42318,7 +42318,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>406</v>
       </c>
@@ -42428,7 +42428,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>408</v>
       </c>
@@ -42538,7 +42538,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>410</v>
       </c>
@@ -42648,7 +42648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -42758,7 +42758,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>413</v>
       </c>
@@ -42868,7 +42868,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>415</v>
       </c>
@@ -42978,7 +42978,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>294</v>
       </c>
@@ -43088,7 +43088,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>521</v>
       </c>
@@ -43195,7 +43195,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>523</v>
       </c>
@@ -43302,7 +43302,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>525</v>
       </c>
@@ -43310,7 +43310,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>401</v>
       </c>
@@ -43318,7 +43318,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>402</v>
       </c>
@@ -43428,7 +43428,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -43538,7 +43538,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>406</v>
       </c>
@@ -43648,7 +43648,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>408</v>
       </c>
@@ -43758,7 +43758,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>410</v>
       </c>
@@ -43868,7 +43868,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>282</v>
       </c>
@@ -43978,7 +43978,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>413</v>
       </c>
@@ -44088,7 +44088,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>415</v>
       </c>
@@ -44198,7 +44198,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>294</v>
       </c>
@@ -44308,7 +44308,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>418</v>
       </c>
@@ -44418,7 +44418,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>420</v>
       </c>
@@ -44426,7 +44426,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>402</v>
       </c>
@@ -44536,7 +44536,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>404</v>
       </c>
@@ -44646,7 +44646,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>406</v>
       </c>
@@ -44756,7 +44756,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>408</v>
       </c>
@@ -44866,7 +44866,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>410</v>
       </c>
@@ -44976,7 +44976,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>282</v>
       </c>
@@ -45086,7 +45086,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>413</v>
       </c>
@@ -45196,7 +45196,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>415</v>
       </c>
@@ -45306,7 +45306,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -45416,7 +45416,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>430</v>
       </c>
@@ -45526,7 +45526,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>432</v>
       </c>
@@ -45534,7 +45534,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>402</v>
       </c>
@@ -45644,7 +45644,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>404</v>
       </c>
@@ -45754,7 +45754,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>406</v>
       </c>
@@ -45864,7 +45864,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>408</v>
       </c>
@@ -45974,7 +45974,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>410</v>
       </c>
@@ -46084,7 +46084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>282</v>
       </c>
@@ -46194,7 +46194,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>413</v>
       </c>
@@ -46304,7 +46304,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>415</v>
       </c>
@@ -46414,7 +46414,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>294</v>
       </c>
@@ -46524,7 +46524,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>442</v>
       </c>
@@ -46634,7 +46634,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -46744,7 +46744,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -46752,7 +46752,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>489</v>
       </c>
@@ -46760,7 +46760,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>401</v>
       </c>
@@ -46768,7 +46768,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>402</v>
       </c>
@@ -46878,7 +46878,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>404</v>
       </c>
@@ -46988,7 +46988,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>406</v>
       </c>
@@ -47098,7 +47098,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>408</v>
       </c>
@@ -47208,7 +47208,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>410</v>
       </c>
@@ -47318,7 +47318,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>282</v>
       </c>
@@ -47428,7 +47428,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>413</v>
       </c>
@@ -47538,7 +47538,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>415</v>
       </c>
@@ -47648,7 +47648,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>294</v>
       </c>
@@ -47758,7 +47758,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>499</v>
       </c>
@@ -47865,7 +47865,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>420</v>
       </c>
@@ -47873,7 +47873,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>402</v>
       </c>
@@ -47983,7 +47983,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>404</v>
       </c>
@@ -48093,7 +48093,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>406</v>
       </c>
@@ -48203,7 +48203,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>408</v>
       </c>
@@ -48313,7 +48313,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>410</v>
       </c>
@@ -48423,7 +48423,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>282</v>
       </c>
@@ -48533,7 +48533,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>413</v>
       </c>
@@ -48643,7 +48643,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>415</v>
       </c>
@@ -48753,7 +48753,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>294</v>
       </c>
@@ -48863,7 +48863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>510</v>
       </c>
@@ -48970,7 +48970,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>432</v>
       </c>
@@ -48978,7 +48978,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>402</v>
       </c>
@@ -49088,7 +49088,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>404</v>
       </c>
@@ -49198,7 +49198,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>406</v>
       </c>
@@ -49308,7 +49308,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>408</v>
       </c>
@@ -49418,7 +49418,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>410</v>
       </c>
@@ -49528,7 +49528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>282</v>
       </c>
@@ -49638,7 +49638,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>413</v>
       </c>
@@ -49748,7 +49748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>415</v>
       </c>
@@ -49858,7 +49858,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>294</v>
       </c>
@@ -49968,7 +49968,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>521</v>
       </c>
@@ -50075,7 +50075,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>523</v>
       </c>
@@ -50182,7 +50182,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>588</v>
       </c>
@@ -50190,7 +50190,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -50198,7 +50198,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>402</v>
       </c>
@@ -50308,7 +50308,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>404</v>
       </c>
@@ -50418,7 +50418,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>406</v>
       </c>
@@ -50528,7 +50528,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>408</v>
       </c>
@@ -50638,7 +50638,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>410</v>
       </c>
@@ -50748,7 +50748,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>282</v>
       </c>
@@ -50858,7 +50858,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>413</v>
       </c>
@@ -50968,7 +50968,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>415</v>
       </c>
@@ -51078,7 +51078,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -51188,7 +51188,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>418</v>
       </c>
@@ -51298,7 +51298,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>420</v>
       </c>
@@ -51306,7 +51306,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>402</v>
       </c>
@@ -51416,7 +51416,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>404</v>
       </c>
@@ -51526,7 +51526,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>406</v>
       </c>
@@ -51636,7 +51636,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>408</v>
       </c>
@@ -51746,7 +51746,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>410</v>
       </c>
@@ -51856,7 +51856,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>282</v>
       </c>
@@ -51966,7 +51966,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>413</v>
       </c>
@@ -52076,7 +52076,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>415</v>
       </c>
@@ -52186,7 +52186,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>294</v>
       </c>
@@ -52296,7 +52296,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>430</v>
       </c>
@@ -52406,7 +52406,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>432</v>
       </c>
@@ -52414,7 +52414,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>402</v>
       </c>
@@ -52524,7 +52524,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>404</v>
       </c>
@@ -52634,7 +52634,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>406</v>
       </c>
@@ -52744,7 +52744,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>408</v>
       </c>
@@ -52854,7 +52854,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>410</v>
       </c>
@@ -52964,7 +52964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>282</v>
       </c>
@@ -53074,7 +53074,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>413</v>
       </c>
@@ -53184,7 +53184,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>415</v>
       </c>
@@ -53294,7 +53294,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>294</v>
       </c>
@@ -53404,7 +53404,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>442</v>
       </c>
@@ -53514,7 +53514,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>270</v>
       </c>
@@ -53624,7 +53624,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -53632,7 +53632,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>620</v>
       </c>
@@ -53742,7 +53742,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>622</v>
       </c>
@@ -53852,7 +53852,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>624</v>
       </c>
@@ -53860,7 +53860,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>625</v>
       </c>
@@ -53970,7 +53970,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>627</v>
       </c>
@@ -54080,7 +54080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>629</v>
       </c>
@@ -54190,7 +54190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>631</v>
       </c>
@@ -54300,7 +54300,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -54308,7 +54308,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>633</v>
       </c>
@@ -54418,7 +54418,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>622</v>
       </c>
@@ -54528,7 +54528,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>624</v>
       </c>
@@ -54536,7 +54536,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>625</v>
       </c>
@@ -54646,7 +54646,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>627</v>
       </c>
@@ -54756,7 +54756,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>629</v>
       </c>
@@ -54866,7 +54866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>631</v>
       </c>
@@ -54976,7 +54976,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -54984,7 +54984,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>640</v>
       </c>
@@ -55094,7 +55094,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>642</v>
       </c>
@@ -55204,7 +55204,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>644</v>
       </c>
@@ -55314,7 +55314,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>624</v>
       </c>
@@ -55322,7 +55322,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>625</v>
       </c>
@@ -55432,7 +55432,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>627</v>
       </c>
@@ -55542,7 +55542,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>629</v>
       </c>
@@ -55652,7 +55652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>631</v>
       </c>
@@ -55776,18 +55776,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -55813,7 +55813,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -55840,7 +55840,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -55868,7 +55868,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -55894,7 +55894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -55920,7 +55920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -55946,7 +55946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -55972,7 +55972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -55994,19 +55994,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>128</v>
       </c>
@@ -56032,7 +56032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -56060,7 +56060,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -56087,7 +56087,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -56113,7 +56113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -56139,7 +56139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -56165,7 +56165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -56204,81 +56204,81 @@
       <selection activeCell="A61" sqref="A61:AF68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
       <c r="N16" s="40"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -56287,13 +56287,13 @@
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N18" s="41"/>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -56302,7 +56302,7 @@
       <c r="P19" s="42"/>
       <c r="Q19" s="42"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -56311,7 +56311,7 @@
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -56320,7 +56320,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -56329,7 +56329,7 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -56338,7 +56338,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -56347,7 +56347,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -56356,13 +56356,13 @@
       <c r="P25" s="42"/>
       <c r="Q25" s="42"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N26" s="41"/>
       <c r="O26" s="43"/>
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>945</v>
       </c>
@@ -56371,96 +56371,96 @@
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="N28" s="41"/>
       <c r="O28" s="43"/>
       <c r="P28" s="42"/>
       <c r="Q28" s="42"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="N29" s="41"/>
       <c r="O29" s="43"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="N30" s="41"/>
       <c r="O30" s="43"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="N31" s="41"/>
       <c r="O31" s="43"/>
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="N32" s="41"/>
       <c r="O32" s="43"/>
       <c r="P32" s="42"/>
       <c r="Q32" s="42"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="N33" s="41"/>
       <c r="O33" s="43"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="N34" s="41"/>
       <c r="O34" s="43"/>
       <c r="P34" s="42"/>
       <c r="Q34" s="42"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="N35" s="41"/>
       <c r="O35" s="43"/>
       <c r="P35" s="42"/>
       <c r="Q35" s="42"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="N36" s="41"/>
       <c r="O36" s="43"/>
       <c r="P36" s="42"/>
       <c r="Q36" s="42"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="N37" s="41"/>
       <c r="O37" s="43"/>
       <c r="P37" s="42"/>
       <c r="Q37" s="42"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="N38" s="41"/>
       <c r="O38" s="43"/>
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N39" s="41"/>
       <c r="O39" s="43"/>
       <c r="P39" s="42"/>
       <c r="Q39" s="42"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N40" s="41"/>
       <c r="O40" s="43"/>
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>946</v>
       </c>
@@ -56469,7 +56469,7 @@
       <c r="P41" s="42"/>
       <c r="Q41" s="42"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>947</v>
       </c>
@@ -56478,7 +56478,7 @@
       <c r="P42" s="42"/>
       <c r="Q42" s="42"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>948</v>
       </c>
@@ -56487,13 +56487,13 @@
       <c r="P43" s="42"/>
       <c r="Q43" s="42"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N44" s="41"/>
       <c r="O44" s="43"/>
       <c r="P44" s="42"/>
       <c r="Q44" s="42"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>939</v>
       </c>
@@ -56505,7 +56505,7 @@
       <c r="P45" s="42"/>
       <c r="Q45" s="42"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="40" t="s">
         <v>940</v>
       </c>
@@ -56523,7 +56523,7 @@
       <c r="P46" s="42"/>
       <c r="Q46" s="42"/>
     </row>
-    <row r="47" spans="1:17" ht="61" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>941</v>
       </c>
@@ -56546,7 +56546,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>2010</v>
       </c>
@@ -56571,7 +56571,7 @@
         <v>2.9920693520220819E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>2011</v>
       </c>
@@ -56596,7 +56596,7 @@
         <v>1.1079306479779186E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>2012</v>
       </c>
@@ -56610,7 +56610,7 @@
         <v>53.170999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>2013</v>
       </c>
@@ -56626,7 +56626,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>2014</v>
       </c>
@@ -56642,7 +56642,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>2015</v>
       </c>
@@ -56656,7 +56656,7 @@
         <v>114.023</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>2016</v>
       </c>
@@ -56670,7 +56670,7 @@
         <v>159.61600000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>2017</v>
       </c>
@@ -56684,7 +56684,7 @@
         <v>195.67500000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>2018</v>
       </c>
@@ -56698,7 +56698,7 @@
         <v>330.94499999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>2019</v>
       </c>
@@ -56712,7 +56712,7 @@
         <v>319.613</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>2020</v>
       </c>
@@ -56726,7 +56726,7 @@
         <v>307.589</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>2021</v>
       </c>
@@ -56740,7 +56740,7 @@
         <v>607.56700000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>952</v>
       </c>
@@ -56838,7 +56838,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>953</v>
       </c>
@@ -56936,7 +56936,7 @@
         <v>11818600</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>954</v>
       </c>
@@ -57034,7 +57034,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>955</v>
       </c>
@@ -57132,7 +57132,7 @@
         <v>14375400</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>956</v>
       </c>
@@ -57230,7 +57230,7 @@
         <v>116103</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>957</v>
       </c>
@@ -57328,7 +57328,7 @@
         <v>1056400</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>958</v>
       </c>
@@ -57426,7 +57426,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>959</v>
       </c>
@@ -57524,7 +57524,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>960</v>
       </c>
@@ -57653,7 +57653,7 @@
         <v>0.43174767576613876</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>961</v>
       </c>
@@ -57782,7 +57782,7 @@
         <v>3.8591562848336439E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>962</v>
       </c>
@@ -57911,7 +57911,7 @@
         <v>0.47033923861447519</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
       <c r="D73" s="45"/>
@@ -57944,7 +57944,7 @@
       <c r="AE73" s="45"/>
       <c r="AF73" s="45"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>963</v>
       </c>
@@ -57980,7 +57980,7 @@
       <c r="AE74" s="45"/>
       <c r="AF74" s="45"/>
     </row>
-    <row r="76" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="F76" s="46" t="s">
         <v>971</v>
       </c>
@@ -57988,7 +57988,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="F77" s="46" t="s">
         <v>972</v>
       </c>
@@ -57996,7 +57996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="F78" s="46" t="s">
         <v>973</v>
       </c>
@@ -58005,7 +58005,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="F80" s="46" t="s">
         <v>974</v>
       </c>
@@ -58013,7 +58013,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="F81" s="46" t="s">
         <v>975</v>
       </c>
@@ -58022,7 +58022,7 @@
         <v>0.21937500000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>977</v>
       </c>
@@ -58034,42 +58034,42 @@
         <v>5.0625000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E93" s="30"/>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
@@ -58084,7 +58084,7 @@
       <c r="N93" s="30"/>
       <c r="O93" s="30"/>
     </row>
-    <row r="94" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E94" s="29"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
@@ -58097,7 +58097,7 @@
       <c r="N94" s="29"/>
       <c r="O94" s="29"/>
     </row>
-    <row r="95" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E95" s="29"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
@@ -58110,7 +58110,7 @@
       <c r="N95" s="29"/>
       <c r="O95" s="29"/>
     </row>
-    <row r="96" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E96" s="29"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
@@ -58125,17 +58125,17 @@
       <c r="P96" s="29"/>
       <c r="Q96" s="29"/>
     </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K103" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>935</v>
       </c>
@@ -58144,7 +58144,7 @@
         <v>1.326343</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>936</v>
       </c>
@@ -58153,7 +58153,7 @@
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>931</v>
       </c>
@@ -58186,18 +58186,18 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" style="7" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -58216,7 +58216,7 @@
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -58233,7 +58233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -58250,7 +58250,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -58267,12 +58267,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -58286,7 +58286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -58300,7 +58300,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -58314,7 +58314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -58456,7 +58456,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -58601,7 +58601,7 @@
         <v>0.99999998971286663</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -58742,7 +58742,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -58881,7 +58881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -59022,7 +59022,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -59162,7 +59162,7 @@
         <v>0.32773377328321535</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>124</v>
       </c>
@@ -59303,7 +59303,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -59446,7 +59446,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -59592,7 +59592,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -59732,7 +59732,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -59871,7 +59871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -60010,7 +60010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>5</v>
       </c>
@@ -60151,7 +60151,7 @@
         <v>0.32413298494392645</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>124</v>
       </c>
@@ -60292,7 +60292,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -60435,7 +60435,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -60581,7 +60581,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -60722,7 +60722,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>3</v>
       </c>
@@ -60863,7 +60863,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -61002,7 +61002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>5</v>
       </c>
@@ -61143,7 +61143,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>124</v>
       </c>
@@ -61284,7 +61284,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23" t="s">
@@ -61427,7 +61427,7 @@
         <v>0.17108784051909381</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -61572,7 +61572,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -61713,7 +61713,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>3</v>
       </c>
@@ -61852,7 +61852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -61991,7 +61991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>5</v>
       </c>
@@ -62132,7 +62132,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>124</v>
       </c>
@@ -62273,7 +62273,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
@@ -62416,7 +62416,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -62561,7 +62561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -62700,7 +62700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>3</v>
       </c>
@@ -62839,7 +62839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>4</v>
       </c>
@@ -62978,7 +62978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>5</v>
       </c>
@@ -63117,7 +63117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>124</v>
       </c>
@@ -63256,7 +63256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -63397,7 +63397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -63542,7 +63542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -63681,7 +63681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>3</v>
       </c>
@@ -63820,7 +63820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>4</v>
       </c>
@@ -63959,7 +63959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>5</v>
       </c>
@@ -64098,7 +64098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -64237,7 +64237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23" t="s">
@@ -64378,7 +64378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -64524,7 +64524,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -64663,7 +64663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>3</v>
       </c>
@@ -64802,7 +64802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>4</v>
       </c>
@@ -64942,7 +64942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>5</v>
       </c>
@@ -65081,7 +65081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>124</v>
       </c>
@@ -65220,7 +65220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23" t="s">
@@ -65361,7 +65361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -65506,7 +65506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -65645,7 +65645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -65784,7 +65784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -65923,7 +65923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>5</v>
       </c>
@@ -66062,7 +66062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>124</v>
       </c>
@@ -66201,7 +66201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="23"/>
       <c r="C65" s="23" t="s">
@@ -66342,7 +66342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -66487,7 +66487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>2</v>
       </c>
@@ -66626,7 +66626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -66765,7 +66765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -66904,7 +66904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>5</v>
       </c>
@@ -67043,7 +67043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>124</v>
       </c>
@@ -67182,7 +67182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
       <c r="C72" s="23" t="s">
@@ -67323,7 +67323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -67468,7 +67468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>2</v>
       </c>
@@ -67607,7 +67607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -67746,7 +67746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -67885,7 +67885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>5</v>
       </c>
@@ -68024,7 +68024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>124</v>
       </c>
@@ -68163,7 +68163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="23"/>
       <c r="C79" s="23" t="s">
@@ -68304,7 +68304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -68450,7 +68450,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>2</v>
       </c>
@@ -68590,7 +68590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -68729,7 +68729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>4</v>
       </c>
@@ -68869,7 +68869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>5</v>
       </c>
@@ -69009,7 +69009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>124</v>
       </c>
@@ -69149,7 +69149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23" t="s">
@@ -69291,7 +69291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -69436,7 +69436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>2</v>
       </c>
@@ -69575,7 +69575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>3</v>
       </c>
@@ -69714,7 +69714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -69853,7 +69853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>5</v>
       </c>
@@ -69992,7 +69992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>124</v>
       </c>
@@ -70131,7 +70131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="C93" s="23" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\AL\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32953517-9E6D-4880-95D7-681913E3AD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2850B2-8565-43B5-BC4D-D8DFB5C31094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
